--- a/hardware_list/hardware_list.xlsx
+++ b/hardware_list/hardware_list.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>加速度</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,6 +50,34 @@
   </si>
   <si>
     <t>AD7689</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MPU6050</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HMC5883.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加速度计&amp;陀螺仪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子罗盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气压计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主芯片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大疆方案</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -57,7 +85,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,6 +98,13 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -93,8 +128,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -375,47 +414,83 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="16.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/hardware_list/hardware_list.xlsx
+++ b/hardware_list/hardware_list.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>加速度</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,6 +78,18 @@
   </si>
   <si>
     <t>大疆方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>型号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stm32f777</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -130,10 +142,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -414,82 +426,93 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="16.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.375" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="1" max="3" width="9" style="2"/>
+    <col min="4" max="4" width="16.875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
+      <c r="D1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="D2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>9</v>
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>5</v>
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
